--- a/cv_15/data/data.xlsx
+++ b/cv_15/data/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dvorakj/Disk Google/Sdílené složky/Škola_shared/3_semestr/EMB/Cv/Protokoly/cv_15/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B27B7FA6-969D-9E4D-ABDA-32975D91858E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38FDFB24-3079-904E-81D6-6B4CBCCDF42B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4720" yWindow="22060" windowWidth="28800" windowHeight="17540" xr2:uid="{75C79C0A-3D2C-9146-86CB-70CD1ED2C6F2}"/>
+    <workbookView xWindow="4720" yWindow="21600" windowWidth="28800" windowHeight="18000" xr2:uid="{75C79C0A-3D2C-9146-86CB-70CD1ED2C6F2}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,12 +389,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37821449-3F10-2E41-A69A-5B31929FF08E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:F18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>0.1</v>
+      </c>
+      <c r="F12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13">
+        <v>0.4</v>
+      </c>
+      <c r="F13">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>0.7</v>
+      </c>
+      <c r="F14">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E15">
+        <v>0.9</v>
+      </c>
+      <c r="F15">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F16">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E17">
+        <v>1.4</v>
+      </c>
+      <c r="F17">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>1.7</v>
+      </c>
+      <c r="F18">
+        <v>1550</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>